--- a/src/main/java/com/denovo/ExcelData/SE_DataShett.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataShett.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D34531-1EC4-4271-8037-790DF4DB29AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16471A41-BFE0-4B6E-B80A-C902671B7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AddUser" sheetId="2" r:id="rId2"/>
+    <sheet name="AddCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>USERNAME</t>
   </si>
@@ -40,23 +41,119 @@
     <t>pass@1234</t>
   </si>
   <si>
-    <t>venkat@dejawaypay.com</t>
-  </si>
-  <si>
     <t>Testdata2@gmail.com</t>
   </si>
   <si>
     <t>Testdata1@gmail.com</t>
   </si>
   <si>
-    <t>SdQTpVupyJXJ54wSpp7x7W5</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>bmurthy@denovosystem.com</t>
+  </si>
+  <si>
+    <t>Bmdenovo@2021</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>TestLastName</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>Isoidentified</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>HelpDeskEmail</t>
+  </si>
+  <si>
+    <t>TechSupportEmail</t>
+  </si>
+  <si>
+    <t>FirstISO</t>
+  </si>
+  <si>
+    <t>Denovo</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>ASDFGH</t>
+  </si>
+  <si>
+    <t>Tsys</t>
+  </si>
+  <si>
+    <t>zx@gmail.com</t>
+  </si>
+  <si>
+    <t>re@gmail.com</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System - Operator </t>
+  </si>
+  <si>
+    <t>TechSupportphoneNumber</t>
+  </si>
+  <si>
+    <t>HelpDeskPhone</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System - Admin  </t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>testsazaltzq1@gmail.com</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>nevcretrysas14@gmail.com</t>
+  </si>
+  <si>
+    <t>ewintryoasdg@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +177,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +218,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,11 +274,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B6FE81-ABD6-494D-A173-4A90B9F93AD2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,62 +629,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E5726271-640E-46FF-A7E3-354ECF2DB01F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2949E31A-8D6B-468A-9A29-EB915FE38DEA}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{B507D9A4-7828-4D5D-BBBF-7F76301AC0D6}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{926333F9-3E19-478E-B0AA-DB05F514727E}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{2F4B3372-5AE1-4FB2-9644-845318F5AA78}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{7D361D5D-BDD9-47D2-BDD7-76822F395C83}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E5726271-640E-46FF-A7E3-354ECF2DB01F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2949E31A-8D6B-468A-9A29-EB915FE38DEA}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B507D9A4-7828-4D5D-BBBF-7F76301AC0D6}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{2F4B3372-5AE1-4FB2-9644-845318F5AA78}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{849690B3-1FDB-4FF1-80F7-F8098D13633B}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{1B9943CD-981F-4E9D-BAA4-0768AD16D977}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{C348F4A5-2235-4532-981B-610A75B55AB6}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{6AB2336D-E6AC-4D8C-B538-4F8CC6D8913B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D0CDF9-E16A-45F3-B3D6-E5EF54DEB764}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13">
+        <v>917697843</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13">
+        <v>917697843</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{701BFFFF-5FF5-4065-ADC8-41B657A6B6A6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6A4DC02E-BA6E-45BD-9EC1-E9DCC22FC125}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F55EA53-28BD-453F-8AF6-FF27BBC0F72D}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="32.36328125" customWidth="1"/>
+    <col min="12" max="12" width="24.54296875" customWidth="1"/>
+    <col min="13" max="13" width="23.90625" customWidth="1"/>
+    <col min="14" max="14" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>9176978444</v>
+      </c>
+      <c r="K2">
+        <v>2015550123</v>
+      </c>
+      <c r="L2">
+        <v>2015550123</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{88AA4CDC-16D7-442A-AF9C-E4C5F4251CF9}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{B8F4FE66-C58E-45F5-A67E-56CA0AF9DF20}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{690BEE39-297D-42C1-813C-95801299B08E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/java/com/denovo/ExcelData/SE_DataShett.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataShett.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16471A41-BFE0-4B6E-B80A-C902671B7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC3C0C-559A-4442-B139-1FC4474D103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="AddUser" sheetId="2" r:id="rId2"/>
-    <sheet name="AddCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateApplication" sheetId="4" r:id="rId3"/>
+    <sheet name="AddCustomer" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>USERNAME</t>
   </si>
@@ -134,26 +135,56 @@
     <t xml:space="preserve">System - Admin  </t>
   </si>
   <si>
-    <t>2132</t>
-  </si>
-  <si>
-    <t>testsazaltzq1@gmail.com</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>nevcretrysas14@gmail.com</t>
-  </si>
-  <si>
-    <t>ewintryoasdg@gmail.com</t>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>DeviceModel</t>
+  </si>
+  <si>
+    <t>TestingData</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>ApplicationSign</t>
+  </si>
+  <si>
+    <t>9176978444</t>
+  </si>
+  <si>
+    <t>aweozohoho14@gmail.com</t>
+  </si>
+  <si>
+    <t>aweozooohoho67@gmail.com</t>
+  </si>
+  <si>
+    <t>zooohooasd12g@gmail.com</t>
+  </si>
+  <si>
+    <t>8329</t>
+  </si>
+  <si>
+    <t>testsaxess25@gmail.com</t>
+  </si>
+  <si>
+    <t>kozen</t>
+  </si>
+  <si>
+    <t>P7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -274,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -284,16 +329,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,7 +667,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D0CDF9-E16A-45F3-B3D6-E5EF54DEB764}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,73 +753,336 @@
     <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="17">
+        <v>917697843</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="18">
         <v>917697843</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18">
         <v>917697843</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E9" s="18" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{701BFFFF-5FF5-4065-ADC8-41B657A6B6A6}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6A4DC02E-BA6E-45BD-9EC1-E9DCC22FC125}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{701BFFFF-5FF5-4065-ADC8-41B657A6B6A6}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{6A4DC02E-BA6E-45BD-9EC1-E9DCC22FC125}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F50CB5BE-6571-4F1C-8F7E-85A506260F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA899B-FBB5-40A9-868F-5D9DF973C778}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F55EA53-28BD-453F-8AF6-FF27BBC0F72D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,7 +1156,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -847,16 +1165,16 @@
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2">
-        <v>9176978444</v>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="K2">
         <v>2015550123</v>
